--- a/Material/05-01-Tabla-inicial-CUE.xlsx
+++ b/Material/05-01-Tabla-inicial-CUE.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Leccion05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan-\OneDrive\Desktop\curso-Excel\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8200A4F8-3AF6-4837-B4AD-D311E74A1EB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995DD639-57ED-4311-9CF4-F920FCEEDD49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="270" windowWidth="19305" windowHeight="10905" xr2:uid="{3F0E8518-93EF-457F-981D-FF1F60424D7B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{3F0E8518-93EF-457F-981D-FF1F60424D7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabla" sheetId="1" r:id="rId1"/>
+    <sheet name="DEPARTAMENTO" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabla!$A$1:$F$193</definedName>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="278">
   <si>
     <t>ID</t>
   </si>
@@ -855,9 +856,6 @@
     <t>DEPARTAMENTO</t>
   </si>
   <si>
-    <t>RECURSOS HUMANOS</t>
-  </si>
-  <si>
     <t>CONTABILIDAD</t>
   </si>
   <si>
@@ -865,6 +863,12 @@
   </si>
   <si>
     <t>FINANZAS</t>
+  </si>
+  <si>
+    <t>RECURSOS_HUMANOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -872,9 +876,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -922,6 +926,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1011,7 +1016,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
@@ -1023,9 +1028,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Énfasis1" xfId="2" builtinId="29"/>
@@ -1049,9 +1054,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1089,7 +1094,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1195,7 +1200,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1337,7 +1342,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1347,11 +1352,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD33982-8FB9-4AE2-9173-2E023CC8CCD9}">
   <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.69921875" customWidth="1"/>
     <col min="2" max="2" width="19.19921875" customWidth="1"/>
@@ -1365,7 +1370,7 @@
     <col min="11" max="11" width="8.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1">
+    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1393,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1">
+    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1407,11 +1412,11 @@
       <c r="F2" s="4">
         <v>73</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>3</v>
       </c>
@@ -1431,10 +1436,10 @@
         <v>98</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
@@ -1453,11 +1458,11 @@
       <c r="F4" s="4">
         <v>61</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+      <c r="G4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>5</v>
       </c>
@@ -1476,11 +1481,11 @@
       <c r="F5" s="4">
         <v>91</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+      <c r="G5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>6</v>
       </c>
@@ -1500,10 +1505,10 @@
         <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>7</v>
       </c>
@@ -1519,11 +1524,11 @@
       <c r="E7" s="6">
         <v>32587</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
+      <c r="G7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -1543,10 +1548,10 @@
         <v>70</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>10</v>
       </c>
@@ -1565,11 +1570,11 @@
       <c r="F9" s="4">
         <v>99</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1">
+      <c r="G9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>11</v>
       </c>
@@ -1589,10 +1594,10 @@
         <v>87</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>12</v>
       </c>
@@ -1611,11 +1616,11 @@
       <c r="F11" s="4">
         <v>92</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1">
+      <c r="G11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>13</v>
       </c>
@@ -1635,10 +1640,10 @@
         <v>66</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>14</v>
       </c>
@@ -1657,11 +1662,11 @@
       <c r="F13" s="4">
         <v>53</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
+      <c r="G13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>15</v>
       </c>
@@ -1681,10 +1686,10 @@
         <v>101</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>16</v>
       </c>
@@ -1703,11 +1708,11 @@
       <c r="F15" s="4">
         <v>104</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1">
+      <c r="G15" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>17</v>
       </c>
@@ -1727,10 +1732,10 @@
         <v>74</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>18</v>
       </c>
@@ -1750,10 +1755,10 @@
         <v>107</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>19</v>
       </c>
@@ -1773,10 +1778,10 @@
         <v>107</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>20</v>
       </c>
@@ -1793,10 +1798,10 @@
         <v>32772</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>21</v>
       </c>
@@ -1815,11 +1820,11 @@
       <c r="F20" s="4">
         <v>106</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1">
+      <c r="G20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>22</v>
       </c>
@@ -1839,10 +1844,10 @@
         <v>70</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>23</v>
       </c>
@@ -1862,10 +1867,10 @@
         <v>61</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>24</v>
       </c>
@@ -1885,10 +1890,10 @@
         <v>85</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>25</v>
       </c>
@@ -1907,11 +1912,11 @@
       <c r="F24" s="4">
         <v>75</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1">
+      <c r="G24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>26</v>
       </c>
@@ -1931,10 +1936,10 @@
         <v>88</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -1954,10 +1959,10 @@
         <v>102</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -1976,11 +1981,11 @@
       <c r="F27" s="4">
         <v>69</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1">
+      <c r="G27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -1999,11 +2004,11 @@
       <c r="F28" s="4">
         <v>73</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="4" customFormat="1">
+      <c r="G28" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>30</v>
       </c>
@@ -2023,10 +2028,10 @@
         <v>71</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>31</v>
       </c>
@@ -2045,11 +2050,11 @@
       <c r="F30" s="4">
         <v>77</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1">
+      <c r="G30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>32</v>
       </c>
@@ -2069,10 +2074,10 @@
         <v>104</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>33</v>
       </c>
@@ -2092,10 +2097,10 @@
         <v>59</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>34</v>
       </c>
@@ -2115,10 +2120,10 @@
         <v>106</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>35</v>
       </c>
@@ -2138,10 +2143,10 @@
         <v>58</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>36</v>
       </c>
@@ -2161,10 +2166,10 @@
         <v>80</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>37</v>
       </c>
@@ -2184,10 +2189,10 @@
         <v>66</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>38</v>
       </c>
@@ -2207,10 +2212,10 @@
         <v>66</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>39</v>
       </c>
@@ -2230,10 +2235,10 @@
         <v>68</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>40</v>
       </c>
@@ -2253,10 +2258,10 @@
         <v>54</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>41</v>
       </c>
@@ -2275,11 +2280,11 @@
       <c r="F40" s="4">
         <v>78</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="4" customFormat="1">
+      <c r="G40" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>42</v>
       </c>
@@ -2299,10 +2304,10 @@
         <v>91</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>43</v>
       </c>
@@ -2322,10 +2327,10 @@
         <v>53</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>44</v>
       </c>
@@ -2345,10 +2350,10 @@
         <v>79</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>45</v>
       </c>
@@ -2368,10 +2373,10 @@
         <v>110</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>46</v>
       </c>
@@ -2391,10 +2396,10 @@
         <v>105</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>47</v>
       </c>
@@ -2413,11 +2418,11 @@
       <c r="F46" s="4">
         <v>60</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="4" customFormat="1">
+      <c r="G46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>48</v>
       </c>
@@ -2437,10 +2442,10 @@
         <v>87</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>49</v>
       </c>
@@ -2459,11 +2464,11 @@
       <c r="F48" s="4">
         <v>70</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="4" customFormat="1">
+      <c r="G48" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -2483,10 +2488,10 @@
         <v>70</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -2505,11 +2510,11 @@
       <c r="F50" s="4">
         <v>78</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="4" customFormat="1">
+      <c r="G50" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -2529,10 +2534,10 @@
         <v>62</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -2552,10 +2557,10 @@
         <v>103</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>54</v>
       </c>
@@ -2575,10 +2580,10 @@
         <v>66</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>55</v>
       </c>
@@ -2597,11 +2602,11 @@
       <c r="F54" s="4">
         <v>102</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="4" customFormat="1">
+      <c r="G54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>56</v>
       </c>
@@ -2620,11 +2625,11 @@
       <c r="F55" s="4">
         <v>79</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="4" customFormat="1">
+      <c r="G55" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>57</v>
       </c>
@@ -2643,11 +2648,11 @@
       <c r="F56" s="4">
         <v>82</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="4" customFormat="1">
+      <c r="G56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>58</v>
       </c>
@@ -2667,10 +2672,10 @@
         <v>103</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>59</v>
       </c>
@@ -2690,10 +2695,10 @@
         <v>54</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>60</v>
       </c>
@@ -2712,11 +2717,11 @@
       <c r="F59" s="4">
         <v>66</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="4" customFormat="1">
+      <c r="G59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>61</v>
       </c>
@@ -2735,11 +2740,11 @@
       <c r="F60" s="4">
         <v>64</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="4" customFormat="1">
+      <c r="G60" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>62</v>
       </c>
@@ -2759,10 +2764,10 @@
         <v>104</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>63</v>
       </c>
@@ -2782,10 +2787,10 @@
         <v>48</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>64</v>
       </c>
@@ -2805,10 +2810,10 @@
         <v>89</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>65</v>
       </c>
@@ -2828,10 +2833,10 @@
         <v>98</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>66</v>
       </c>
@@ -2847,11 +2852,11 @@
       <c r="E65" s="6">
         <v>30367</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="4" customFormat="1">
+      <c r="G65" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>67</v>
       </c>
@@ -2871,10 +2876,10 @@
         <v>94</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>68</v>
       </c>
@@ -2894,10 +2899,10 @@
         <v>91</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>69</v>
       </c>
@@ -2916,11 +2921,11 @@
       <c r="F68" s="4">
         <v>95</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="4" customFormat="1">
+      <c r="G68" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>70</v>
       </c>
@@ -2940,10 +2945,10 @@
         <v>110</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>71</v>
       </c>
@@ -2963,10 +2968,10 @@
         <v>96</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>73</v>
       </c>
@@ -2986,10 +2991,10 @@
         <v>53</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>74</v>
       </c>
@@ -3009,10 +3014,10 @@
         <v>59</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>75</v>
       </c>
@@ -3031,11 +3036,11 @@
       <c r="F73" s="4">
         <v>75</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="4" customFormat="1">
+      <c r="G73" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>76</v>
       </c>
@@ -3055,10 +3060,10 @@
         <v>97</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>77</v>
       </c>
@@ -3078,10 +3083,10 @@
         <v>108</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>78</v>
       </c>
@@ -3101,10 +3106,10 @@
         <v>106</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>79</v>
       </c>
@@ -3124,10 +3129,10 @@
         <v>93</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>80</v>
       </c>
@@ -3147,10 +3152,10 @@
         <v>93</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>81</v>
       </c>
@@ -3170,10 +3175,10 @@
         <v>79</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>82</v>
       </c>
@@ -3192,11 +3197,11 @@
       <c r="F80" s="4">
         <v>89</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="4" customFormat="1">
+      <c r="G80" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>83</v>
       </c>
@@ -3216,10 +3221,10 @@
         <v>81</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>84</v>
       </c>
@@ -3238,11 +3243,11 @@
       <c r="F82" s="4">
         <v>100</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="4" customFormat="1">
+      <c r="G82" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>85</v>
       </c>
@@ -3262,10 +3267,10 @@
         <v>83</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>86</v>
       </c>
@@ -3282,10 +3287,10 @@
         <v>29604</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>87</v>
       </c>
@@ -3305,10 +3310,10 @@
         <v>63</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>88</v>
       </c>
@@ -3327,11 +3332,11 @@
       <c r="F86" s="4">
         <v>79</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="4" customFormat="1">
+      <c r="G86" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>89</v>
       </c>
@@ -3351,10 +3356,10 @@
         <v>66</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>90</v>
       </c>
@@ -3374,10 +3379,10 @@
         <v>101</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>91</v>
       </c>
@@ -3397,10 +3402,10 @@
         <v>108</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>92</v>
       </c>
@@ -3420,10 +3425,10 @@
         <v>95</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>93</v>
       </c>
@@ -3443,10 +3448,10 @@
         <v>83</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>94</v>
       </c>
@@ -3466,10 +3471,10 @@
         <v>69</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>95</v>
       </c>
@@ -3489,10 +3494,10 @@
         <v>73</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>96</v>
       </c>
@@ -3511,11 +3516,11 @@
       <c r="F94" s="4">
         <v>90</v>
       </c>
-      <c r="G94" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="4" customFormat="1">
+      <c r="G94" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>98</v>
       </c>
@@ -3535,10 +3540,10 @@
         <v>102</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>99</v>
       </c>
@@ -3558,10 +3563,10 @@
         <v>76</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>100</v>
       </c>
@@ -3580,11 +3585,11 @@
       <c r="F97" s="4">
         <v>51</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="4" customFormat="1">
+      <c r="G97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>101</v>
       </c>
@@ -3603,11 +3608,11 @@
       <c r="F98" s="4">
         <v>62</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" s="4" customFormat="1">
+      <c r="G98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>102</v>
       </c>
@@ -3627,10 +3632,10 @@
         <v>98</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>103</v>
       </c>
@@ -3650,10 +3655,10 @@
         <v>76</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>104</v>
       </c>
@@ -3673,10 +3678,10 @@
         <v>68</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>105</v>
       </c>
@@ -3695,11 +3700,11 @@
       <c r="F102" s="4">
         <v>89</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="4" customFormat="1">
+      <c r="G102" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>106</v>
       </c>
@@ -3718,11 +3723,11 @@
       <c r="F103" s="4">
         <v>96</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="4" customFormat="1">
+      <c r="G103" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>107</v>
       </c>
@@ -3741,11 +3746,11 @@
       <c r="F104" s="4">
         <v>105</v>
       </c>
-      <c r="G104" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="4" customFormat="1">
+      <c r="G104" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>108</v>
       </c>
@@ -3765,10 +3770,10 @@
         <v>99</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>109</v>
       </c>
@@ -3787,11 +3792,11 @@
       <c r="F106" s="4">
         <v>86</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="4" customFormat="1">
+      <c r="G106" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>110</v>
       </c>
@@ -3810,11 +3815,11 @@
       <c r="F107" s="4">
         <v>83</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="4" customFormat="1">
+      <c r="G107" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>111</v>
       </c>
@@ -3833,11 +3838,11 @@
       <c r="F108" s="4">
         <v>98</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="4" customFormat="1">
+      <c r="G108" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>112</v>
       </c>
@@ -3857,10 +3862,10 @@
         <v>100</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>113</v>
       </c>
@@ -3880,10 +3885,10 @@
         <v>85</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>114</v>
       </c>
@@ -3903,10 +3908,10 @@
         <v>101</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>115</v>
       </c>
@@ -3926,10 +3931,10 @@
         <v>58</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>116</v>
       </c>
@@ -3948,11 +3953,11 @@
       <c r="F113" s="4">
         <v>76</v>
       </c>
-      <c r="G113" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="4" customFormat="1">
+      <c r="G113" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>117</v>
       </c>
@@ -3972,10 +3977,10 @@
         <v>62</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>118</v>
       </c>
@@ -3995,10 +4000,10 @@
         <v>49</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>119</v>
       </c>
@@ -4017,11 +4022,11 @@
       <c r="F116" s="4">
         <v>62</v>
       </c>
-      <c r="G116" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="4" customFormat="1">
+      <c r="G116" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>120</v>
       </c>
@@ -4041,10 +4046,10 @@
         <v>75</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>121</v>
       </c>
@@ -4064,10 +4069,10 @@
         <v>74</v>
       </c>
       <c r="G118" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>123</v>
       </c>
@@ -4087,10 +4092,10 @@
         <v>73</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>124</v>
       </c>
@@ -4110,10 +4115,10 @@
         <v>98</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>125</v>
       </c>
@@ -4132,11 +4137,11 @@
       <c r="F121" s="4">
         <v>61</v>
       </c>
-      <c r="G121" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="4" customFormat="1">
+      <c r="G121" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>126</v>
       </c>
@@ -4156,10 +4161,10 @@
         <v>70</v>
       </c>
       <c r="G122" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>127</v>
       </c>
@@ -4179,10 +4184,10 @@
         <v>91</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>128</v>
       </c>
@@ -4202,10 +4207,10 @@
         <v>53</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>129</v>
       </c>
@@ -4225,10 +4230,10 @@
         <v>60</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>130</v>
       </c>
@@ -4248,10 +4253,10 @@
         <v>70</v>
       </c>
       <c r="G126" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>131</v>
       </c>
@@ -4271,10 +4276,10 @@
         <v>65</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>132</v>
       </c>
@@ -4293,11 +4298,11 @@
       <c r="F128" s="4">
         <v>99</v>
       </c>
-      <c r="G128" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" s="4" customFormat="1">
+      <c r="G128" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>133</v>
       </c>
@@ -4317,10 +4322,10 @@
         <v>87</v>
       </c>
       <c r="G129" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>134</v>
       </c>
@@ -4339,11 +4344,11 @@
       <c r="F130" s="4">
         <v>92</v>
       </c>
-      <c r="G130" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" s="4" customFormat="1">
+      <c r="G130" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>135</v>
       </c>
@@ -4363,10 +4368,10 @@
         <v>66</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>136</v>
       </c>
@@ -4386,10 +4391,10 @@
         <v>53</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>137</v>
       </c>
@@ -4409,10 +4414,10 @@
         <v>101</v>
       </c>
       <c r="G133" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>138</v>
       </c>
@@ -4431,11 +4436,11 @@
       <c r="F134" s="4">
         <v>104</v>
       </c>
-      <c r="G134" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" s="4" customFormat="1">
+      <c r="G134" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>139</v>
       </c>
@@ -4455,10 +4460,10 @@
         <v>74</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>140</v>
       </c>
@@ -4477,11 +4482,11 @@
       <c r="F136" s="4">
         <v>107</v>
       </c>
-      <c r="G136" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" s="4" customFormat="1">
+      <c r="G136" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>141</v>
       </c>
@@ -4501,10 +4506,10 @@
         <v>107</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>142</v>
       </c>
@@ -4524,10 +4529,10 @@
         <v>79</v>
       </c>
       <c r="G138" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>143</v>
       </c>
@@ -4547,10 +4552,10 @@
         <v>106</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>144</v>
       </c>
@@ -4570,10 +4575,10 @@
         <v>70</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>145</v>
       </c>
@@ -4593,10 +4598,10 @@
         <v>61</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>146</v>
       </c>
@@ -4615,11 +4620,11 @@
       <c r="F142" s="4">
         <v>85</v>
       </c>
-      <c r="G142" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" s="4" customFormat="1">
+      <c r="G142" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>147</v>
       </c>
@@ -4639,10 +4644,10 @@
         <v>75</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>148</v>
       </c>
@@ -4662,10 +4667,10 @@
         <v>88</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>149</v>
       </c>
@@ -4685,10 +4690,10 @@
         <v>102</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>150</v>
       </c>
@@ -4707,11 +4712,11 @@
       <c r="F146" s="4">
         <v>69</v>
       </c>
-      <c r="G146" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" s="4" customFormat="1">
+      <c r="G146" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>151</v>
       </c>
@@ -4730,11 +4735,11 @@
       <c r="F147" s="4">
         <v>73</v>
       </c>
-      <c r="G147" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" s="4" customFormat="1">
+      <c r="G147" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>152</v>
       </c>
@@ -4754,10 +4759,10 @@
         <v>71</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>153</v>
       </c>
@@ -4777,10 +4782,10 @@
         <v>77</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>154</v>
       </c>
@@ -4800,10 +4805,10 @@
         <v>104</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>155</v>
       </c>
@@ -4822,11 +4827,11 @@
       <c r="F151" s="4">
         <v>59</v>
       </c>
-      <c r="G151" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" s="4" customFormat="1">
+      <c r="G151" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>156</v>
       </c>
@@ -4845,11 +4850,11 @@
       <c r="F152" s="4">
         <v>106</v>
       </c>
-      <c r="G152" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" s="4" customFormat="1">
+      <c r="G152" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>157</v>
       </c>
@@ -4869,10 +4874,10 @@
         <v>58</v>
       </c>
       <c r="G153" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>158</v>
       </c>
@@ -4892,10 +4897,10 @@
         <v>80</v>
       </c>
       <c r="G154" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>159</v>
       </c>
@@ -4915,10 +4920,10 @@
         <v>66</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>160</v>
       </c>
@@ -4937,11 +4942,11 @@
       <c r="F156" s="4">
         <v>66</v>
       </c>
-      <c r="G156" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" s="4" customFormat="1">
+      <c r="G156" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>161</v>
       </c>
@@ -4960,11 +4965,11 @@
       <c r="F157" s="4">
         <v>68</v>
       </c>
-      <c r="G157" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" s="4" customFormat="1">
+      <c r="G157" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>162</v>
       </c>
@@ -4984,10 +4989,10 @@
         <v>54</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>163</v>
       </c>
@@ -5007,10 +5012,10 @@
         <v>78</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>164</v>
       </c>
@@ -5030,10 +5035,10 @@
         <v>91</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>165</v>
       </c>
@@ -5053,10 +5058,10 @@
         <v>53</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>166</v>
       </c>
@@ -5075,11 +5080,11 @@
       <c r="F162" s="4">
         <v>79</v>
       </c>
-      <c r="G162" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" s="4" customFormat="1">
+      <c r="G162" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>167</v>
       </c>
@@ -5099,10 +5104,10 @@
         <v>110</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>168</v>
       </c>
@@ -5122,10 +5127,10 @@
         <v>105</v>
       </c>
       <c r="G164" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>170</v>
       </c>
@@ -5144,11 +5149,11 @@
       <c r="F165" s="4">
         <v>87</v>
       </c>
-      <c r="G165" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" s="4" customFormat="1">
+      <c r="G165" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>171</v>
       </c>
@@ -5168,10 +5173,10 @@
         <v>70</v>
       </c>
       <c r="G166" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>172</v>
       </c>
@@ -5191,10 +5196,10 @@
         <v>70</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>173</v>
       </c>
@@ -5214,10 +5219,10 @@
         <v>78</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>174</v>
       </c>
@@ -5237,10 +5242,10 @@
         <v>62</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A170" s="4">
         <v>175</v>
       </c>
@@ -5259,11 +5264,11 @@
       <c r="F170" s="4">
         <v>103</v>
       </c>
-      <c r="G170" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" s="4" customFormat="1">
+      <c r="G170" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A171" s="4">
         <v>176</v>
       </c>
@@ -5283,10 +5288,10 @@
         <v>66</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A172" s="4">
         <v>177</v>
       </c>
@@ -5306,10 +5311,10 @@
         <v>102</v>
       </c>
       <c r="G172" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A173" s="4">
         <v>178</v>
       </c>
@@ -5329,10 +5334,10 @@
         <v>79</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A174" s="4">
         <v>179</v>
       </c>
@@ -5352,10 +5357,10 @@
         <v>82</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A175" s="4">
         <v>180</v>
       </c>
@@ -5375,10 +5380,10 @@
         <v>103</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A176" s="4">
         <v>181</v>
       </c>
@@ -5398,10 +5403,10 @@
         <v>54</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A177" s="4">
         <v>182</v>
       </c>
@@ -5420,11 +5425,11 @@
       <c r="F177" s="4">
         <v>66</v>
       </c>
-      <c r="G177" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" s="4" customFormat="1">
+      <c r="G177" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A178" s="4">
         <v>183</v>
       </c>
@@ -5444,10 +5449,10 @@
         <v>64</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A179" s="4">
         <v>184</v>
       </c>
@@ -5466,11 +5471,11 @@
       <c r="F179" s="4">
         <v>104</v>
       </c>
-      <c r="G179" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" s="4" customFormat="1">
+      <c r="G179" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A180" s="4">
         <v>185</v>
       </c>
@@ -5490,10 +5495,10 @@
         <v>48</v>
       </c>
       <c r="G180" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="4">
         <v>186</v>
       </c>
@@ -5513,10 +5518,10 @@
         <v>89</v>
       </c>
       <c r="G181" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A182" s="4">
         <v>187</v>
       </c>
@@ -5536,10 +5541,10 @@
         <v>98</v>
       </c>
       <c r="G182" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A183" s="4">
         <v>188</v>
       </c>
@@ -5558,11 +5563,11 @@
       <c r="F183" s="4">
         <v>82</v>
       </c>
-      <c r="G183" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" s="4" customFormat="1">
+      <c r="G183" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A184" s="4">
         <v>189</v>
       </c>
@@ -5582,10 +5587,10 @@
         <v>94</v>
       </c>
       <c r="G184" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="4">
         <v>190</v>
       </c>
@@ -5605,10 +5610,10 @@
         <v>91</v>
       </c>
       <c r="G185" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="4">
         <v>191</v>
       </c>
@@ -5628,10 +5633,10 @@
         <v>95</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="4">
         <v>192</v>
       </c>
@@ -5651,10 +5656,10 @@
         <v>110</v>
       </c>
       <c r="G187" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" s="4" customFormat="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>193</v>
       </c>
@@ -5674,10 +5679,10 @@
         <v>96</v>
       </c>
       <c r="G188" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="4">
         <v>195</v>
       </c>
@@ -5697,10 +5702,10 @@
         <v>53</v>
       </c>
       <c r="G189" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="4">
         <v>196</v>
       </c>
@@ -5719,11 +5724,11 @@
       <c r="F190" s="4">
         <v>59</v>
       </c>
-      <c r="G190" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" s="4" customFormat="1">
+      <c r="G190" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="4">
         <v>197</v>
       </c>
@@ -5743,10 +5748,10 @@
         <v>75</v>
       </c>
       <c r="G191" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" s="4" customFormat="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="4">
         <v>198</v>
       </c>
@@ -5766,10 +5771,10 @@
         <v>97</v>
       </c>
       <c r="G192" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" s="4" customFormat="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="4">
         <v>200</v>
       </c>
@@ -5788,16 +5793,74 @@
       <c r="F193" s="4">
         <v>106</v>
       </c>
-      <c r="G193" s="7" t="s">
-        <v>276</v>
+      <c r="G193" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G193">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G193">
     <sortCondition ref="A2"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BE8650A6-B0A3-41B8-8882-C7DDFAC372ED}">
+          <x14:formula1>
+            <xm:f>DEPARTAMENTO!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G193</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BA8647-392B-4B26-A34B-F664E7294ABB}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>